--- a/www/ig/nos/ValueSet-JDV-J182-BesoinScolarite-MDPH.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J182-BesoinScolarite-MDPH.xlsx
@@ -31,13 +31,13 @@
     <t>Identifier</t>
   </si>
   <si>
-    <t>id: urn:oid:1.2.250.1.213.3.4.17</t>
+    <t>urn:oid:1.2.250.1.213.3.4.17</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/www/ig/nos/ValueSet-JDV-J182-BesoinScolarite-MDPH.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J182-BesoinScolarite-MDPH.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
   <si>
     <t>Property</t>
   </si>
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.0</t>
+    <t>1.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -73,7 +73,13 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>ANS (https://esante.gouv.fr)</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Description</t>
@@ -131,9 +137,6 @@
   </si>
   <si>
     <t>Pour l'utilisation du matériel</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>System URI</t>
@@ -279,7 +282,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -385,20 +388,28 @@
       <c r="A13" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" t="s" s="2">
+        <v>23</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s" s="2">
         <v>25</v>
+      </c>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -420,74 +431,74 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -509,34 +520,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/www/ig/nos/ValueSet-JDV-J182-BesoinScolarite-MDPH.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J182-BesoinScolarite-MDPH.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
   <si>
     <t>Property</t>
   </si>
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.0</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -73,70 +73,67 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>ANS (https://esante.gouv.fr)</t>
-  </si>
-  <si>
-    <t>Jurisdiction</t>
+    <t>No display for ContactDetail</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Caractérise les besoins d'aide de la personne en matière de scolarité, en lien avec les apprentissages</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>Immutable</t>
+  </si>
+  <si>
+    <t>BooleanType[null]</t>
+  </si>
+  <si>
+    <t>Concept</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>Pour lire</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>Pour écrire, prendre des notes</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>Pour calculer</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>Pour comprendre, suivre les consignes</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>Pour organiser, contrôler son travail</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>Pour l'utilisation du matériel</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Caractérise les besoins d'aide de la personne en matière de scolarité, en lien avec les apprentissages</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Copyright</t>
-  </si>
-  <si>
-    <t>Immutable</t>
-  </si>
-  <si>
-    <t>BooleanType[null]</t>
-  </si>
-  <si>
-    <t>Concept</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>Pour lire</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>Pour écrire, prendre des notes</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>Pour calculer</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>Pour comprendre, suivre les consignes</t>
-  </si>
-  <si>
-    <t>05</t>
-  </si>
-  <si>
-    <t>Pour organiser, contrôler son travail</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>Pour l'utilisation du matériel</t>
   </si>
   <si>
     <t>System URI</t>
@@ -282,7 +279,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -388,28 +385,20 @@
       <c r="A13" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B13" t="s" s="2">
-        <v>23</v>
-      </c>
+      <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>25</v>
-      </c>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -431,74 +420,74 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>41</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -520,34 +509,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/www/ig/nos/ValueSet-JDV-J182-BesoinScolarite-MDPH.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J182-BesoinScolarite-MDPH.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
   <si>
     <t>Property</t>
   </si>
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.0</t>
+    <t>1.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -76,67 +76,64 @@
     <t>ANS (https://esante.gouv.fr)</t>
   </si>
   <si>
-    <t>Jurisdiction</t>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Caractérise les besoins d'aide de la personne en matière de scolarité, en lien avec les apprentissages</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>Immutable</t>
+  </si>
+  <si>
+    <t>BooleanType[null]</t>
+  </si>
+  <si>
+    <t>Concept</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>Pour lire</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>Pour écrire, prendre des notes</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>Pour calculer</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>Pour comprendre, suivre les consignes</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>Pour organiser, contrôler son travail</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>Pour l'utilisation du matériel</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Caractérise les besoins d'aide de la personne en matière de scolarité, en lien avec les apprentissages</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Copyright</t>
-  </si>
-  <si>
-    <t>Immutable</t>
-  </si>
-  <si>
-    <t>BooleanType[null]</t>
-  </si>
-  <si>
-    <t>Concept</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>Pour lire</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>Pour écrire, prendre des notes</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>Pour calculer</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>Pour comprendre, suivre les consignes</t>
-  </si>
-  <si>
-    <t>05</t>
-  </si>
-  <si>
-    <t>Pour organiser, contrôler son travail</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>Pour l'utilisation du matériel</t>
   </si>
   <si>
     <t>System URI</t>
@@ -282,7 +279,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -388,28 +385,20 @@
       <c r="A13" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B13" t="s" s="2">
-        <v>23</v>
-      </c>
+      <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>25</v>
-      </c>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -431,74 +420,74 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>41</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -520,34 +509,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/www/ig/nos/ValueSet-JDV-J182-BesoinScolarite-MDPH.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J182-BesoinScolarite-MDPH.xlsx
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.5.0</t>
   </si>
   <si>
     <t>Name</t>
